--- a/hw2/Report.xlsx
+++ b/hw2/Report.xlsx
@@ -14,6 +14,11 @@
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.0" hidden="1">工作表1!$C$26:$C$32</definedName>
+    <definedName name="_xlchart.1" hidden="1">工作表1!$D$26:$D$32</definedName>
+    <definedName name="_xlchart.2" hidden="1">工作表1!$G$26:$G$32</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -118,10 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>marital</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>capital</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,10 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>work-related</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nothing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,6 +156,14 @@
   </si>
   <si>
     <t xml:space="preserve">(n_estimators = 1000) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>work-related</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>marital-related</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -241,7 +246,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -313,13 +318,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -395,12 +439,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -440,11 +478,26 @@
     <xf numFmtId="177" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -918,7 +971,7 @@
                   <c:v>education</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>marital</c:v>
+                  <c:v>marital-related</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>capital</c:v>
@@ -1090,8 +1143,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.36212574607207032"/>
-              <c:y val="0.90637398813399006"/>
+              <c:x val="0.45655805232741964"/>
+              <c:y val="0.90142790604934309"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4197,16 +4250,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>201266</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>101462</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>88156</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>166946</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>58392</xdr:colOff>
+      <xdr:colOff>629892</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>194227</xdr:rowOff>
+      <xdr:rowOff>51352</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4585,8 +4638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -4607,7 +4660,7 @@
     </row>
     <row r="3" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12"/>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="34" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="12" t="s">
@@ -4643,7 +4696,7 @@
       <c r="C5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="33">
         <v>0.84519999999999995</v>
       </c>
       <c r="E5" s="15">
@@ -4716,7 +4769,7 @@
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C11" s="35">
         <v>1000</v>
       </c>
       <c r="D11" s="4">
@@ -4732,7 +4785,7 @@
     </row>
     <row r="12" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="11"/>
-      <c r="C12" s="38">
+      <c r="C12" s="36">
         <v>5000</v>
       </c>
       <c r="D12" s="15">
@@ -4757,7 +4810,7 @@
     </row>
     <row r="15" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="10"/>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="34" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="9" t="s">
@@ -4794,7 +4847,7 @@
       <c r="C17" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="39">
+      <c r="D17" s="37">
         <v>0.84519999999999995</v>
       </c>
       <c r="E17" s="14">
@@ -4859,7 +4912,7 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="40" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>6</v>
@@ -4877,30 +4930,35 @@
     </row>
     <row r="22" spans="2:7" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="41"/>
-      <c r="C22" s="38"/>
+      <c r="C22" s="36"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C25" s="2" t="s">
+    <row r="25" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4908,10 +4966,10 @@
       <c r="B26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="35">
         <v>0.1</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="43">
         <v>0.85331999999999997</v>
       </c>
       <c r="E26" s="6">
@@ -4926,10 +4984,10 @@
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C27" s="1">
+      <c r="C27" s="35">
         <v>1</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="43">
         <v>0.85335000000000005</v>
       </c>
       <c r="E27" s="6">
@@ -4944,10 +5002,10 @@
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="1">
+      <c r="C28" s="35">
         <v>10</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="43">
         <v>0.85338000000000003</v>
       </c>
       <c r="E28" s="6">
@@ -4962,10 +5020,10 @@
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="1">
+      <c r="C29" s="35">
         <v>100</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="43">
         <v>0.85365999999999997</v>
       </c>
       <c r="E29" s="6">
@@ -4980,10 +5038,10 @@
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C30" s="1">
+      <c r="C30" s="35">
         <v>1000</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="43">
         <v>0.84838000000000002</v>
       </c>
       <c r="E30" s="6">
@@ -4998,10 +5056,10 @@
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C31" s="1">
+      <c r="C31" s="35">
         <v>10000</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="43">
         <v>0.82884000000000002</v>
       </c>
       <c r="E31" s="6">
@@ -5015,20 +5073,20 @@
         <v>0.82868999999999993</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C32" s="1">
+    <row r="32" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="36">
         <v>100000</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="44">
         <v>0.752</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="14">
         <v>0.76326000000000005</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="14">
         <v>0.75592000000000004</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="14">
         <f t="shared" si="2"/>
         <v>0.75958999999999999</v>
       </c>
@@ -5046,7 +5104,7 @@
       <c r="B36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="38" t="s">
         <v>20</v>
       </c>
       <c r="D36" s="21" t="s">
@@ -5055,27 +5113,27 @@
       <c r="E36" s="21"/>
       <c r="F36" s="22"/>
       <c r="G36" s="21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
     </row>
     <row r="37" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="26"/>
+      <c r="C37" s="39"/>
       <c r="D37" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G37" s="9" t="s">
         <v>3</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I37" s="9" t="s">
         <v>14</v>
@@ -5083,7 +5141,7 @@
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C38" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D38" s="8">
         <v>0.85392999999999997</v>
@@ -5133,7 +5191,7 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C40" s="23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D40" s="8">
         <v>0.84336</v>
@@ -5183,57 +5241,57 @@
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C42" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D42" s="27">
+        <v>33</v>
+      </c>
+      <c r="D42" s="25">
         <v>0.82972000000000001</v>
       </c>
-      <c r="E42" s="27">
+      <c r="E42" s="25">
         <v>0.82901000000000002</v>
       </c>
-      <c r="F42" s="28">
+      <c r="F42" s="26">
         <f t="shared" si="3"/>
         <v>0.82936500000000002</v>
       </c>
-      <c r="G42" s="33">
+      <c r="G42" s="31">
         <v>0.85858999999999996</v>
       </c>
-      <c r="H42" s="33">
+      <c r="H42" s="31">
         <v>0.85209999999999997</v>
       </c>
-      <c r="I42" s="34">
+      <c r="I42" s="32">
         <f t="shared" si="4"/>
         <v>0.85534500000000002</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C43" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D43" s="29">
+        <v>23</v>
+      </c>
+      <c r="D43" s="27">
         <v>0.83660000000000001</v>
       </c>
-      <c r="E43" s="29">
+      <c r="E43" s="27">
         <v>0.83453999999999995</v>
       </c>
-      <c r="F43" s="30">
+      <c r="F43" s="28">
         <f t="shared" si="3"/>
         <v>0.83556999999999992</v>
       </c>
-      <c r="G43" s="31">
+      <c r="G43" s="29">
         <v>0.84004000000000001</v>
       </c>
-      <c r="H43" s="31">
+      <c r="H43" s="29">
         <v>0.83945000000000003</v>
       </c>
-      <c r="I43" s="32">
+      <c r="I43" s="30">
         <f t="shared" si="4"/>
         <v>0.83974499999999996</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C44" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D44" s="8">
         <v>0.85343000000000002</v>
@@ -5258,7 +5316,7 @@
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C45" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D45" s="8">
         <v>0.85428999999999999</v>
@@ -5283,7 +5341,7 @@
     </row>
     <row r="46" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C46" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D46" s="13">
         <v>0.85453999999999997</v>
